--- a/Turma Maio 2017/Diario de Bordo turma 347.xlsx
+++ b/Turma Maio 2017/Diario de Bordo turma 347.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="374 EXCEL AVANÇADO Sábado 1345" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>374 EXCEL AVANÇADO SÁBADO 13:45 LABORATÓRIO TOEFL</t>
   </si>
@@ -202,13 +202,19 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>Indice, Corresp, SeErro, Revisão Procv, Aba Desenvolvedor, Botões comando, Caixa de combinação, Botão de rotação, barra de rolagem.</t>
+  </si>
+  <si>
+    <t>Minigraficos, segmentação de dados(Pivot), segmentação de datas, conceitos de Dashboards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -510,11 +516,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -848,18 +854,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1">
     <tabColor rgb="FF26A69A"/>
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:O10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -870,27 +876,27 @@
     <col min="16" max="16" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="36">
+    <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -904,21 +910,21 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -932,7 +938,7 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="18"/>
@@ -946,7 +952,7 @@
       <c r="O3" s="19"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="18">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -961,7 +967,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
@@ -975,7 +981,7 @@
       <c r="O4" s="19"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="18">
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -990,7 +996,7 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="18"/>
@@ -1004,7 +1010,7 @@
       <c r="O5" s="19"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="18">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1019,7 +1025,7 @@
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="18"/>
@@ -1033,7 +1039,7 @@
       <c r="O6" s="19"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="18">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>19</v>
@@ -1048,7 +1054,7 @@
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="18"/>
@@ -1062,7 +1068,7 @@
       <c r="O7" s="19"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="18">
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -1077,7 +1083,7 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="18"/>
@@ -1091,7 +1097,7 @@
       <c r="O8" s="19"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="18">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -1106,7 +1112,7 @@
       <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="18"/>
@@ -1120,7 +1126,7 @@
       <c r="O9" s="19"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="18">
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>28</v>
@@ -1135,7 +1141,7 @@
       <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="18"/>
@@ -1149,7 +1155,7 @@
       <c r="O10" s="19"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="18">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>31</v>
@@ -1164,7 +1170,7 @@
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="18"/>
@@ -1178,7 +1184,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="18">
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>34</v>
@@ -1193,7 +1199,7 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="18"/>
@@ -1207,7 +1213,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="18">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
         <v>37</v>
@@ -1222,7 +1228,7 @@
       <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="18"/>
@@ -1236,7 +1242,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="18">
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
         <v>40</v>
@@ -1251,7 +1257,7 @@
       <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="18"/>
@@ -1265,7 +1271,7 @@
       <c r="O14" s="19"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="18">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="14" t="s">
         <v>43</v>
@@ -1288,7 +1294,7 @@
       <c r="O15" s="29"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="18">
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="14" t="s">
         <v>44</v>
@@ -1298,20 +1304,20 @@
         <v>42945</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="31"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="18">
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
         <v>45</v>
@@ -1326,7 +1332,9 @@
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -1338,7 +1346,7 @@
       <c r="O17" s="19"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="18">
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="10" t="s">
         <v>47</v>
@@ -1353,7 +1361,9 @@
       <c r="E18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1365,7 +1375,7 @@
       <c r="O18" s="19"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="18">
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
         <v>49</v>
@@ -1380,7 +1390,7 @@
       <c r="E19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -1392,7 +1402,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="18">
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
         <v>51</v>
@@ -1407,7 +1417,7 @@
       <c r="E20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -1419,7 +1429,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="18">
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
         <v>53</v>
@@ -1434,7 +1444,7 @@
       <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -1446,7 +1456,7 @@
       <c r="O21" s="19"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="18">
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>55</v>
@@ -1461,7 +1471,7 @@
       <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -1473,7 +1483,7 @@
       <c r="O22" s="19"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="18">
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="10" t="s">
         <v>57</v>
@@ -1488,7 +1498,7 @@
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -1500,7 +1510,7 @@
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" ht="18">
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="10" t="s">
         <v>59</v>
@@ -1515,7 +1525,7 @@
       <c r="E24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -1529,6 +1539,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F24:O24"/>
     <mergeCell ref="F18:O18"/>
     <mergeCell ref="F11:O11"/>
@@ -1545,13 +1562,6 @@
     <mergeCell ref="F8:O8"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="F20:O20"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F3:O3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Maio 2017/Diario de Bordo turma 347.xlsx
+++ b/Turma Maio 2017/Diario de Bordo turma 347.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>374 EXCEL AVANÇADO SÁBADO 13:45 LABORATÓRIO TOEFL</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Minigraficos, segmentação de dados(Pivot), segmentação de datas, conceitos de Dashboards</t>
+  </si>
+  <si>
+    <t>Prova Pratica 2</t>
+  </si>
+  <si>
+    <t>Revisão para prova 2</t>
+  </si>
+  <si>
+    <t>Introdução VBA, Introdução Macros, Macro que grava registros em outra tela e macro que muda de cor, macro que limpa registros.</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -223,25 +235,30 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -862,7 +879,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1407,9 @@
       <c r="E19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -1417,7 +1436,9 @@
       <c r="E20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -1498,7 +1519,9 @@
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -1525,7 +1548,9 @@
       <c r="E24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>

--- a/Turma Maio 2017/Diario de Bordo turma 347.xlsx
+++ b/Turma Maio 2017/Diario de Bordo turma 347.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Maio 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma Maio 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>374 EXCEL AVANÇADO SÁBADO 13:45 LABORATÓRIO TOEFL</t>
   </si>
@@ -219,7 +219,13 @@
     <t>Introdução VBA, Introdução Macros, Macro que grava registros em outra tela e macro que muda de cor, macro que limpa registros.</t>
   </si>
   <si>
-    <t>]</t>
+    <t>Macros gravações com botões, macro para mudar a cor, macro para gravar inserindo linha</t>
+  </si>
+  <si>
+    <t>VBA gravações com botões avançado, comando capturar usuário do computador, nome do computador, data do dia, habiltar senha com comando, bloquear celulas.</t>
+  </si>
+  <si>
+    <t>VBA, traz dados de outra aba,</t>
   </si>
 </sst>
 </file>
@@ -533,12 +539,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,7 +885,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20:O20"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,7 +961,7 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="18"/>
@@ -984,7 +990,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
@@ -1013,7 +1019,7 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="18"/>
@@ -1042,7 +1048,7 @@
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="18"/>
@@ -1071,7 +1077,7 @@
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="18"/>
@@ -1100,7 +1106,7 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="18"/>
@@ -1129,7 +1135,7 @@
       <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="18"/>
@@ -1158,7 +1164,7 @@
       <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="18"/>
@@ -1187,7 +1193,7 @@
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="18"/>
@@ -1216,7 +1222,7 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="18"/>
@@ -1245,7 +1251,7 @@
       <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="18"/>
@@ -1274,7 +1280,7 @@
       <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="18"/>
@@ -1349,7 +1355,7 @@
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="20" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="18"/>
@@ -1378,7 +1384,7 @@
       <c r="E18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="18"/>
@@ -1407,7 +1413,7 @@
       <c r="E19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="18"/>
@@ -1436,7 +1442,7 @@
       <c r="E20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="20" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="18"/>
@@ -1465,7 +1471,9 @@
       <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -1492,7 +1500,9 @@
       <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -1519,7 +1529,7 @@
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="18"/>
@@ -1548,7 +1558,7 @@
       <c r="E24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="18"/>
@@ -1564,13 +1574,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F24:O24"/>
     <mergeCell ref="F18:O18"/>
     <mergeCell ref="F11:O11"/>
@@ -1587,6 +1590,13 @@
     <mergeCell ref="F8:O8"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Maio 2017/Diario de Bordo turma 347.xlsx
+++ b/Turma Maio 2017/Diario de Bordo turma 347.xlsx
@@ -225,7 +225,7 @@
     <t>VBA gravações com botões avançado, comando capturar usuário do computador, nome do computador, data do dia, habiltar senha com comando, bloquear celulas.</t>
   </si>
   <si>
-    <t>VBA, traz dados de outra aba,</t>
+    <t>VBA, traz dados de outra aba, criar Funções personalizadas com VBA (imc, multiplicação, select case)</t>
   </si>
 </sst>
 </file>
@@ -539,12 +539,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,7 +883,7 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23:O23"/>
     </sheetView>
@@ -961,7 +961,7 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="18"/>
@@ -990,7 +990,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
@@ -1019,7 +1019,7 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="18"/>
@@ -1048,7 +1048,7 @@
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="18"/>
@@ -1077,7 +1077,7 @@
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="18"/>
@@ -1106,7 +1106,7 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="18"/>
@@ -1135,7 +1135,7 @@
       <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="18"/>
@@ -1164,7 +1164,7 @@
       <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="18"/>
@@ -1193,7 +1193,7 @@
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="18"/>
@@ -1222,7 +1222,7 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="18"/>
@@ -1251,7 +1251,7 @@
       <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="18"/>
@@ -1280,7 +1280,7 @@
       <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="18"/>
@@ -1355,7 +1355,7 @@
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="18"/>
@@ -1384,7 +1384,7 @@
       <c r="E18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="17" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="18"/>
@@ -1413,7 +1413,7 @@
       <c r="E19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="18"/>
@@ -1442,7 +1442,7 @@
       <c r="E20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="18"/>
@@ -1471,7 +1471,7 @@
       <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="18"/>
@@ -1500,7 +1500,7 @@
       <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="18"/>
@@ -1529,7 +1529,7 @@
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="18"/>
@@ -1558,7 +1558,7 @@
       <c r="E24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="18"/>
@@ -1574,6 +1574,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F24:O24"/>
     <mergeCell ref="F18:O18"/>
     <mergeCell ref="F11:O11"/>
@@ -1590,13 +1597,6 @@
     <mergeCell ref="F8:O8"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="F20:O20"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Maio 2017/Diario de Bordo turma 347.xlsx
+++ b/Turma Maio 2017/Diario de Bordo turma 347.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -539,12 +539,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,9 +883,9 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:O23"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -961,7 +961,7 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="18"/>
@@ -990,7 +990,7 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="18"/>
@@ -1019,7 +1019,7 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="18"/>
@@ -1048,7 +1048,7 @@
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="18"/>
@@ -1077,7 +1077,7 @@
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="18"/>
@@ -1106,7 +1106,7 @@
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="18"/>
@@ -1135,7 +1135,7 @@
       <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="18"/>
@@ -1164,7 +1164,7 @@
       <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="18"/>
@@ -1193,7 +1193,7 @@
       <c r="E11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="18"/>
@@ -1222,7 +1222,7 @@
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="18"/>
@@ -1251,7 +1251,7 @@
       <c r="E13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="18"/>
@@ -1280,7 +1280,7 @@
       <c r="E14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="18"/>
@@ -1355,7 +1355,7 @@
       <c r="E17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="20" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="18"/>
@@ -1384,7 +1384,7 @@
       <c r="E18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="18"/>
@@ -1413,7 +1413,7 @@
       <c r="E19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="20" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="18"/>
@@ -1442,7 +1442,7 @@
       <c r="E20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="20" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="18"/>
@@ -1471,7 +1471,7 @@
       <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="18"/>
@@ -1500,7 +1500,7 @@
       <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="20" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="18"/>
@@ -1529,7 +1529,7 @@
       <c r="E23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G23" s="18"/>
@@ -1558,7 +1558,7 @@
       <c r="E24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="18"/>
@@ -1574,13 +1574,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F24:O24"/>
     <mergeCell ref="F18:O18"/>
     <mergeCell ref="F11:O11"/>
@@ -1597,6 +1590,13 @@
     <mergeCell ref="F8:O8"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
